--- a/customflows/src/main/resources/TestData/TestData.xlsx
+++ b/customflows/src/main/resources/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Automation_Project\customflows\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC76CAA-B8D7-48FE-89AC-D7E7BC0254D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746D6481-CD9A-426C-9D0B-B9BD056FD5E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFForm" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Initiator is Selected role</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>AFBody</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Approver Context</t>
   </si>
   <si>
-    <t>Visibility</t>
-  </si>
-  <si>
     <t>Skip Settings</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>Assignee</t>
   </si>
   <si>
-    <t xml:space="preserve">No Of Days </t>
-  </si>
-  <si>
     <t>Select Day</t>
   </si>
   <si>
@@ -189,12 +180,6 @@
     <t>Trigger Type</t>
   </si>
   <si>
-    <t>INITIATOR</t>
-  </si>
-  <si>
-    <t>Application Form</t>
-  </si>
-  <si>
     <t>Approval Flow</t>
   </si>
   <si>
@@ -231,15 +216,6 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>DDL Auto</t>
-  </si>
-  <si>
-    <t>MS box Auto</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>Radio</t>
   </si>
   <si>
@@ -258,27 +234,6 @@
     <t>Initiator</t>
   </si>
   <si>
-    <t>CF Approval Flow 2 stage Auto</t>
-  </si>
-  <si>
-    <t>form:</t>
-  </si>
-  <si>
-    <t>1,2,1,balaji</t>
-  </si>
-  <si>
-    <t>2,3,a,balaji</t>
-  </si>
-  <si>
-    <t>CF Work flow Name</t>
-  </si>
-  <si>
-    <t>this is created using automation</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
     <t>stage 1</t>
   </si>
   <si>
@@ -294,27 +249,15 @@
     <t>0</t>
   </si>
   <si>
-    <t>When</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>CF- Raise Requistion</t>
-  </si>
-  <si>
-    <t>created for raise requistion through automaiton</t>
-  </si>
-  <si>
     <t>Event Type</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
+    <t>cf Form auto2</t>
+  </si>
+  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -324,7 +267,148 @@
     <t>Create Custom flow</t>
   </si>
   <si>
-    <t>cf Form auto2</t>
+    <t>Skip setting used for automatiom</t>
+  </si>
+  <si>
+    <t>1,259</t>
+  </si>
+  <si>
+    <t>3,625</t>
+  </si>
+  <si>
+    <t>form:Leave Form2</t>
+  </si>
+  <si>
+    <t>3,269</t>
+  </si>
+  <si>
+    <t>CF Approval Flow  3 stage Auto</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>CF Approval Flow  2 stage Auto</t>
+  </si>
+  <si>
+    <t>Multi Select</t>
+  </si>
+  <si>
+    <t>Mutiselect</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>VisibilityRoles</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Select When</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>Trigger Date</t>
+  </si>
+  <si>
+    <t>CF Work flow by auto1</t>
+  </si>
+  <si>
+    <t>this is created using automation 1</t>
+  </si>
+  <si>
+    <t>No Of Days</t>
+  </si>
+  <si>
+    <t>CF Work flow by auto 0</t>
+  </si>
+  <si>
+    <t>CF Work flow by auto2</t>
+  </si>
+  <si>
+    <t>Business Flow</t>
+  </si>
+  <si>
+    <t>Location Change</t>
+  </si>
+  <si>
+    <t>Manager Change</t>
+  </si>
+  <si>
+    <t>Desgination Change</t>
+  </si>
+  <si>
+    <t>Employee Movement</t>
+  </si>
+  <si>
+    <t>Employee Transfer</t>
+  </si>
+  <si>
+    <t>No Event</t>
+  </si>
+  <si>
+    <t>DOJ</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>ALL, TYP, DEPT, DESG</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Approval FLow1</t>
+  </si>
+  <si>
+    <t>CF- Raise Requistion1</t>
+  </si>
+  <si>
+    <t>CF- Raise Requistion2</t>
+  </si>
+  <si>
+    <t>created for raise requistion through automaiton1</t>
+  </si>
+  <si>
+    <t>created for raise requistion through automaiton2</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>1,3</t>
   </si>
 </sst>
 </file>
@@ -368,13 +452,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +745,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,44 +767,44 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -729,48 +815,162 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08932F6-461B-42CB-A967-18AA58992A25}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" activeCellId="1" sqref="B4 M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
         <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +983,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +1003,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -814,10 +1014,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -828,10 +1028,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -842,13 +1042,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -859,13 +1059,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -876,10 +1076,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -890,13 +1090,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -907,10 +1107,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
@@ -963,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -977,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -993,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99D03D4-FBC8-474F-9C4F-CF30CC18F703}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -1054,10 +1254,12 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6">
-        <v>2259</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1081,8 +1283,8 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6">
-        <v>3625</v>
+      <c r="G3" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1099,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D99226C-5D02-4BBA-A400-810643F45BAE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,15 +1318,23 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1135,124 +1345,253 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64379857-4A16-4890-9E2A-322439F6ECD4}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
         <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E12E28B-629D-4930-B6C7-4391C2FFD38B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1267,21 +1606,49 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
+      <c r="D2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1291,81 +1658,283 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694225E5-F037-4447-AFD5-F64457ED6843}">
-  <dimension ref="B1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>84</v>
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1375,18 +1944,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEAB2A-00B2-4895-9454-5061B0D2F756}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1394,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1403,25 +1972,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1429,16 +1998,95 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
